--- a/future.xlsx
+++ b/future.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\NBA Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465C86B2-959F-4CCF-BEE0-826D454B8581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21620BD4-AC6C-489A-9579-91A7D4A76162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -322,6 +323,21 @@
   </si>
   <si>
     <t>Wed, Jan 31, 2024</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Accuracy on Completed Games Data (Binary Outcome)</t>
+  </si>
+  <si>
+    <t>Mean Squared Error on Completed Games Data (Points)</t>
   </si>
 </sst>
 </file>
@@ -397,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,6 +435,14 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,9 +748,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -744,7 +770,7 @@
     <col min="12" max="12" width="14.1328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,12 +804,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N1" s="9">
+        <f>7/15</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -817,8 +850,11 @@
       <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L2" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -852,8 +888,11 @@
       <c r="K3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -887,8 +926,11 @@
       <c r="K4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -922,8 +964,11 @@
       <c r="K5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -957,8 +1002,12 @@
       <c r="K6" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -992,8 +1041,11 @@
       <c r="K7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1079,11 @@
       <c r="K8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1038,14 +1093,39 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
+      <c r="D9" s="8">
+        <v>141</v>
+      </c>
       <c r="E9" t="s">
         <v>42</v>
       </c>
+      <c r="F9" s="8">
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="9">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -1055,14 +1135,35 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
+      <c r="D10" s="8">
+        <v>97</v>
+      </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="8">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
@@ -1072,14 +1173,35 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
+      <c r="D11" s="8">
+        <v>131</v>
+      </c>
       <c r="E11" t="s">
         <v>44</v>
       </c>
+      <c r="F11" s="8">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
       <c r="H11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
@@ -1089,14 +1211,35 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
+      <c r="D12" s="8">
+        <v>116</v>
+      </c>
       <c r="E12" t="s">
         <v>25</v>
       </c>
+      <c r="F12" s="8">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
       <c r="H12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -1106,14 +1249,35 @@
       <c r="C13" t="s">
         <v>48</v>
       </c>
+      <c r="D13" s="8">
+        <v>100</v>
+      </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
+      <c r="F13" s="8">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
       <c r="H13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1123,14 +1287,35 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
+      <c r="D14" s="8">
+        <v>96</v>
+      </c>
       <c r="E14" t="s">
         <v>52</v>
       </c>
+      <c r="F14" s="8">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1140,14 +1325,35 @@
       <c r="C15" t="s">
         <v>54</v>
       </c>
+      <c r="D15" s="8">
+        <v>126</v>
+      </c>
       <c r="E15" t="s">
         <v>55</v>
       </c>
+      <c r="F15" s="8">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1157,11 +1363,32 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
+      <c r="D16" s="8">
+        <v>102</v>
+      </c>
       <c r="E16" t="s">
         <v>58</v>
       </c>
+      <c r="F16" s="8">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
       <c r="H16" t="s">
         <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2596,4 +2823,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F7EA3-8120-44CD-9B09-861BE28FB91E}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="4" width="45.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="10">
+        <v>45309</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="10">
+        <v>45310</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.74193548387096697</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="10">
+        <v>45311</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.69841269841269804</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/future.xlsx
+++ b/future.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\NBA Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21620BD4-AC6C-489A-9579-91A7D4A76162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA98407-CE31-49B7-955F-07FEF0763CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -366,7 +366,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -413,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -443,6 +449,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,9 +757,7 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1391,7 +1396,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>60</v>
       </c>
@@ -1407,8 +1412,20 @@
       <c r="H17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1424,8 +1441,20 @@
       <c r="H18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -1441,8 +1470,20 @@
       <c r="H19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -1458,8 +1499,20 @@
       <c r="H20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -1475,8 +1528,20 @@
       <c r="H21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>60</v>
       </c>
@@ -1492,8 +1557,20 @@
       <c r="H22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>65</v>
       </c>
@@ -1510,7 +1587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
@@ -1527,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>65</v>
       </c>
@@ -1544,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -1561,7 +1638,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1578,7 +1655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
@@ -1595,7 +1672,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -1612,7 +1689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
@@ -1629,7 +1706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>74</v>
       </c>
@@ -1646,7 +1723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F7EA3-8120-44CD-9B09-861BE28FB91E}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/future.xlsx
+++ b/future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkdb\OneDrive\Desktop\NBA Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA98407-CE31-49B7-955F-07FEF0763CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B597E8AE-8492-4938-9B66-19386AA28FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -757,7 +757,9 @@
   </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1406,8 +1408,17 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
+      <c r="D17" s="8">
+        <v>114</v>
+      </c>
       <c r="E17" t="s">
         <v>62</v>
+      </c>
+      <c r="F17" s="8">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
       </c>
       <c r="H17" t="s">
         <v>38</v>
@@ -1435,8 +1446,14 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
+      <c r="D18" s="8">
+        <v>87</v>
+      </c>
       <c r="E18" t="s">
         <v>18</v>
+      </c>
+      <c r="F18" s="8">
+        <v>105</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
@@ -1464,8 +1481,14 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
+      <c r="D19" s="8">
+        <v>113</v>
+      </c>
       <c r="E19" t="s">
         <v>44</v>
+      </c>
+      <c r="F19" s="8">
+        <v>104</v>
       </c>
       <c r="H19" t="s">
         <v>45</v>
@@ -1493,8 +1516,14 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
+      <c r="D20" s="8">
+        <v>116</v>
+      </c>
       <c r="E20" t="s">
         <v>55</v>
+      </c>
+      <c r="F20" s="8">
+        <v>107</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -1522,8 +1551,14 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
+      <c r="D21" s="8">
+        <v>110</v>
+      </c>
       <c r="E21" t="s">
         <v>28</v>
+      </c>
+      <c r="F21" s="8">
+        <v>117</v>
       </c>
       <c r="H21" t="s">
         <v>64</v>
@@ -1551,8 +1586,14 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
+      <c r="D22" s="8">
+        <v>110</v>
+      </c>
       <c r="E22" t="s">
         <v>37</v>
+      </c>
+      <c r="F22" s="8">
+        <v>134</v>
       </c>
       <c r="H22" t="s">
         <v>38</v>
@@ -1580,11 +1621,29 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
+      <c r="D23" s="8">
+        <v>122</v>
+      </c>
       <c r="E23" t="s">
         <v>42</v>
       </c>
+      <c r="F23" s="8">
+        <v>113</v>
+      </c>
       <c r="H23" t="s">
         <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1597,11 +1656,29 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
+      <c r="D24" s="8">
+        <v>126</v>
+      </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
+      <c r="F24" s="8">
+        <v>99</v>
+      </c>
       <c r="H24" t="s">
         <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1614,11 +1691,29 @@
       <c r="C25" t="s">
         <v>13</v>
       </c>
+      <c r="D25" s="8">
+        <v>123</v>
+      </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
+      <c r="F25" s="8">
+        <v>133</v>
+      </c>
       <c r="H25" t="s">
         <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1631,11 +1726,29 @@
       <c r="C26" t="s">
         <v>51</v>
       </c>
+      <c r="D26" s="8">
+        <v>108</v>
+      </c>
       <c r="E26" t="s">
         <v>48</v>
       </c>
+      <c r="F26" s="8">
+        <v>100</v>
+      </c>
       <c r="H26" t="s">
         <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1648,11 +1761,29 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
+      <c r="D27" s="8">
+        <v>128</v>
+      </c>
       <c r="E27" t="s">
         <v>58</v>
       </c>
+      <c r="F27" s="8">
+        <v>125</v>
+      </c>
       <c r="H27" t="s">
         <v>59</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1665,11 +1796,29 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
+      <c r="D28" s="8">
+        <v>119</v>
+      </c>
       <c r="E28" t="s">
         <v>69</v>
       </c>
+      <c r="F28" s="8">
+        <v>110</v>
+      </c>
       <c r="H28" t="s">
         <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1682,11 +1831,29 @@
       <c r="C29" t="s">
         <v>52</v>
       </c>
+      <c r="D29" s="8">
+        <v>113</v>
+      </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
+      <c r="F29" s="8">
+        <v>115</v>
+      </c>
       <c r="H29" t="s">
         <v>64</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1699,11 +1866,29 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
+      <c r="D30" s="8">
+        <v>107</v>
+      </c>
       <c r="E30" t="s">
         <v>72</v>
       </c>
+      <c r="F30" s="8">
+        <v>122</v>
+      </c>
       <c r="H30" t="s">
         <v>73</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
